--- a/BackTest/2020-01-19 BackTest CON.xlsx
+++ b/BackTest/2020-01-19 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1474.712854228797</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3.159</v>
@@ -523,7 +523,7 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3.156</v>
@@ -562,7 +562,7 @@
         <v>-68611.38714577121</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3.156</v>
@@ -601,9 +601,11 @@
         <v>-101651.9771457712</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -638,7 +640,7 @@
         <v>-189760.2171457712</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3.157</v>
@@ -677,7 +679,7 @@
         <v>-119674.1171457712</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3.156</v>
@@ -716,7 +718,7 @@
         <v>-260847.5471457712</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3.159</v>
@@ -755,7 +757,7 @@
         <v>-181750.3771457712</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3.156</v>
@@ -794,7 +796,7 @@
         <v>-329939.5240457712</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3.158</v>
@@ -833,7 +835,7 @@
         <v>370674.9847542288</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3.155</v>
@@ -872,7 +874,7 @@
         <v>370674.9847542288</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3.17</v>
@@ -911,7 +913,7 @@
         <v>329624.5547542288</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3.17</v>
@@ -1024,9 +1026,11 @@
         <v>341138.6997542288</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1135,7 +1139,7 @@
         <v>298586.4247542289</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3.169</v>
@@ -1174,7 +1178,7 @@
         <v>369173.1397542289</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3.156</v>
@@ -1213,7 +1217,7 @@
         <v>369173.1397542289</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>3.161</v>
@@ -1252,7 +1256,7 @@
         <v>333128.8597542288</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3.161</v>
@@ -1291,9 +1295,11 @@
         <v>408721.7247542288</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1328,7 +1334,7 @@
         <v>477806.5947542288</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>3.162</v>
@@ -1367,7 +1373,7 @@
         <v>400211.2697542288</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3.165</v>
@@ -1406,7 +1412,7 @@
         <v>759436.7411542288</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>3.16</v>
@@ -1445,7 +1451,7 @@
         <v>704869.7061542288</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3.17</v>
@@ -1484,9 +1490,11 @@
         <v>644795.9061542287</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1521,9 +1529,11 @@
         <v>595735.6361542287</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.161</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1558,7 +1568,7 @@
         <v>642793.4461542286</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>3.158</v>
@@ -1597,7 +1607,7 @@
         <v>605247.3211542286</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3.161</v>
@@ -1636,7 +1646,7 @@
         <v>652805.7461542287</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3.159</v>
@@ -1675,7 +1685,7 @@
         <v>711990.2241542287</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3.161</v>
@@ -1714,7 +1724,7 @@
         <v>647911.5041542287</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3.165</v>
@@ -1753,7 +1763,7 @@
         <v>686458.8591542287</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3.156</v>
@@ -1792,7 +1802,7 @@
         <v>609364.1491542287</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3.161</v>
@@ -1831,7 +1841,7 @@
         <v>557800.8041542288</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3.158</v>
@@ -1870,9 +1880,11 @@
         <v>631391.2091542288</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.156</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1907,9 +1919,11 @@
         <v>568814.3341542288</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1944,7 +1958,7 @@
         <v>706984.0741542288</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3.156</v>
@@ -1983,9 +1997,11 @@
         <v>647551.0611542288</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2020,9 +2036,11 @@
         <v>693607.6411542287</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.155</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2057,9 +2075,11 @@
         <v>751678.9811542287</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.156</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2094,7 +2114,7 @@
         <v>783718.3411542287</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3.157</v>
@@ -2133,9 +2153,11 @@
         <v>814756.4711542287</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.162</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2170,9 +2192,11 @@
         <v>759688.8211542286</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2207,9 +2231,11 @@
         <v>691105.7961542286</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.16</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2244,9 +2270,11 @@
         <v>742168.5261542286</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.155</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2281,9 +2309,11 @@
         <v>702119.3261542286</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2318,9 +2348,11 @@
         <v>390226.5446542287</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.16</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2355,7 +2387,7 @@
         <v>420764.0596542287</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>3.14</v>
@@ -2394,7 +2426,7 @@
         <v>489240.1816542287</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>3.153</v>
@@ -2433,7 +2465,7 @@
         <v>526285.6916542287</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>3.155</v>
@@ -2472,9 +2504,11 @@
         <v>483232.8016542287</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.163</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2509,9 +2543,11 @@
         <v>411144.2416542287</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.154</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2546,9 +2582,11 @@
         <v>363085.2016542287</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.153</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2583,9 +2621,11 @@
         <v>514251.7738542287</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.152</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2620,7 +2660,7 @@
         <v>434153.3738542288</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>3.165</v>
@@ -2659,7 +2699,7 @@
         <v>394604.7888542287</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>3.161</v>
@@ -2698,7 +2738,7 @@
         <v>326020.5338542287</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>3.159</v>
@@ -2737,9 +2777,11 @@
         <v>383591.2588542287</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.152</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2774,9 +2816,11 @@
         <v>338535.9088542287</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.155</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2811,9 +2855,11 @@
         <v>380086.9538542287</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.152</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2848,9 +2894,11 @@
         <v>327522.3788542287</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.163</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2885,9 +2933,11 @@
         <v>389598.6388542287</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.153</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2922,9 +2972,11 @@
         <v>355556.8188542287</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.157</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2959,9 +3011,11 @@
         <v>423640.4588542287</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.152</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2996,9 +3050,11 @@
         <v>458683.5088542287</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.156</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3033,9 +3089,11 @@
         <v>563312.0438542287</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.162</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3070,9 +3128,11 @@
         <v>563312.0438542287</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3107,9 +3167,11 @@
         <v>1267472.004054229</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3144,9 +3206,11 @@
         <v>1314950.331054229</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.168</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3181,9 +3245,11 @@
         <v>1253875.301054229</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.17</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3255,9 +3321,11 @@
         <v>1177781.821054229</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.163</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3292,9 +3360,11 @@
         <v>1272254.188954229</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.163</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3329,9 +3399,11 @@
         <v>1205171.778954229</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.17</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3366,9 +3438,11 @@
         <v>1269751.113954229</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3403,9 +3477,11 @@
         <v>1154609.663954229</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.167</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3440,9 +3516,11 @@
         <v>1207674.853954229</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.162</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3514,9 +3592,11 @@
         <v>1141593.673954229</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.167</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3551,9 +3631,11 @@
         <v>1087527.253954229</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.166</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3588,9 +3670,11 @@
         <v>1041971.288954229</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.165</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3625,9 +3709,11 @@
         <v>1148602.283954229</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.162</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3662,9 +3748,11 @@
         <v>1226698.223954229</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3699,9 +3787,11 @@
         <v>1226698.223954229</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.166</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3736,9 +3826,11 @@
         <v>1194158.248954229</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.166</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3773,9 +3865,11 @@
         <v>1257736.353954229</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3810,9 +3904,11 @@
         <v>1194658.863954229</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.165</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3847,9 +3943,11 @@
         <v>1260239.428954229</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.162</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3884,9 +3982,11 @@
         <v>1312303.388954229</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.163</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3921,9 +4021,11 @@
         <v>1313056.313954229</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3958,9 +4060,11 @@
         <v>1221443.768954229</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.17</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4032,9 +4136,11 @@
         <v>1075264.188954229</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.168</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4069,9 +4175,11 @@
         <v>1123823.843954229</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3.166</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4180,9 +4288,11 @@
         <v>1035715.603954229</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.167</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4217,9 +4327,11 @@
         <v>1105801.703954229</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4328,9 +4440,11 @@
         <v>1276302.318954229</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.167</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4365,9 +4479,11 @@
         <v>1276302.318954229</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.163</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4402,9 +4518,11 @@
         <v>1347389.648954229</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.163</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4439,9 +4557,11 @@
         <v>1347389.648954229</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.168</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4476,7 +4596,7 @@
         <v>1306839.833954229</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>3.168</v>
@@ -4515,7 +4635,7 @@
         <v>1235251.888954229</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>3.166</v>
@@ -4554,7 +4674,7 @@
         <v>1156715.407954229</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>3.163</v>
@@ -4593,7 +4713,7 @@
         <v>1193260.302954229</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>3.155</v>
@@ -4632,9 +4752,11 @@
         <v>1149706.797954229</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4669,7 +4791,7 @@
         <v>1149706.797954229</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>3.154</v>
@@ -4708,7 +4830,7 @@
         <v>1206776.907954229</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>3.154</v>
@@ -4747,7 +4869,7 @@
         <v>1170732.627954229</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>3.165</v>
@@ -4786,9 +4908,11 @@
         <v>1246325.492954229</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4823,9 +4947,11 @@
         <v>1177240.622954229</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.165</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4860,9 +4986,11 @@
         <v>1254835.947954229</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4897,9 +5025,11 @@
         <v>1204607.585254229</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4934,7 +5064,7 @@
         <v>1259174.620254229</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3.147</v>
@@ -4973,9 +5103,11 @@
         <v>1319248.420254229</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.151</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5010,7 +5142,7 @@
         <v>1319248.420254229</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>3.154</v>
@@ -5049,9 +5181,11 @@
         <v>1344632.246954229</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.154</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5086,9 +5220,11 @@
         <v>1297574.436954229</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5123,7 +5259,7 @@
         <v>1335120.561954229</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>3.157</v>
@@ -5162,9 +5298,11 @@
         <v>1287562.136954229</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5199,9 +5337,11 @@
         <v>1346134.091954229</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.151</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5236,9 +5376,11 @@
         <v>1410212.811954229</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.153</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5273,7 +5415,7 @@
         <v>1371665.456954229</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>3.155</v>
@@ -5312,7 +5454,7 @@
         <v>1448760.166954229</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>3.152</v>
@@ -5351,7 +5493,7 @@
         <v>1501228.623954229</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>3.154</v>
@@ -5390,7 +5532,7 @@
         <v>1427638.218954229</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>3.159</v>
@@ -5429,7 +5571,7 @@
         <v>1365061.343954229</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>3.156</v>
@@ -5468,7 +5610,7 @@
         <v>1299981.393954229</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>3.152</v>
@@ -5507,9 +5649,11 @@
         <v>1373071.183954229</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3.151</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5544,7 +5688,7 @@
         <v>1313998.613954229</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>3.154</v>
@@ -5583,9 +5727,11 @@
         <v>1295081.946854229</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.152</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5620,7 +5766,7 @@
         <v>1249025.366854229</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3.15</v>
@@ -5659,7 +5805,7 @@
         <v>1456167.568054229</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>3.147</v>
@@ -5698,7 +5844,7 @@
         <v>1488206.928054229</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>3.15</v>
@@ -5737,7 +5883,7 @@
         <v>1488206.928054229</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>3.159</v>
@@ -5776,7 +5922,7 @@
         <v>1482948.615754229</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>3.159</v>
@@ -5815,7 +5961,7 @@
         <v>1538016.265754229</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>3.156</v>
@@ -5854,9 +6000,11 @@
         <v>1605599.290754229</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5891,9 +6039,11 @@
         <v>1554536.560754229</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5928,9 +6078,11 @@
         <v>1594585.760754229</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3.157</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5965,9 +6117,11 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6002,9 +6156,11 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6039,7 +6195,7 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>3.158</v>
@@ -6078,9 +6234,11 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6115,9 +6273,11 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6152,9 +6312,11 @@
         <v>1594419.525754229</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6189,9 +6351,11 @@
         <v>1546360.485754229</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6226,9 +6390,11 @@
         <v>1624957.040754229</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6263,9 +6429,11 @@
         <v>1505310.055754229</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6300,7 +6468,7 @@
         <v>1573894.310754229</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>3.158</v>
@@ -6339,9 +6507,11 @@
         <v>1516323.585754229</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6376,7 +6546,7 @@
         <v>1561378.935754229</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>3.158</v>
@@ -6415,7 +6585,7 @@
         <v>1519827.890754229</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>3.159</v>
@@ -6454,9 +6624,11 @@
         <v>1519827.890754229</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6491,9 +6663,11 @@
         <v>1519827.890754229</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6528,9 +6702,11 @@
         <v>1553869.710754229</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6565,7 +6741,7 @@
         <v>1553869.710754229</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>3.159</v>
@@ -6604,9 +6780,11 @@
         <v>1518826.660754229</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6641,7 +6819,7 @@
         <v>1562880.780754229</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>3.158</v>
@@ -6680,7 +6858,7 @@
         <v>1562880.780754229</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>3.159</v>
@@ -6719,7 +6897,7 @@
         <v>1802969.404554229</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>3.159</v>
@@ -6758,7 +6936,7 @@
         <v>2002059.242554229</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>3.164</v>
@@ -6797,7 +6975,7 @@
         <v>2002059.242554229</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>3.169</v>
@@ -6836,9 +7014,11 @@
         <v>1940984.212554229</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.169</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6873,9 +7053,11 @@
         <v>2017077.692554229</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.153</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6910,7 +7092,7 @@
         <v>2048616.437554229</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>3.163</v>
@@ -6949,7 +7131,7 @@
         <v>2190791.097554229</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>3.166</v>
@@ -6988,7 +7170,7 @@
         <v>2126211.762554229</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>3.168</v>
@@ -7027,7 +7209,7 @@
         <v>2181780.027554229</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>3.161</v>
@@ -7066,7 +7248,7 @@
         <v>2181780.027554229</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>3.162</v>
@@ -7105,9 +7287,11 @@
         <v>2234845.217554229</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3.162</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7142,9 +7326,11 @@
         <v>2162256.042554229</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3.166</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7179,9 +7365,11 @@
         <v>2228337.22255423</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3.163</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7216,7 +7404,7 @@
         <v>2128714.83755423</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>3.165</v>
@@ -7255,9 +7443,11 @@
         <v>2184783.71755423</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.161</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7292,7 +7482,7 @@
         <v>2133348.52955423</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>3.166</v>
@@ -7331,7 +7521,7 @@
         <v>2211444.46955423</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>3.163</v>
@@ -7370,9 +7560,11 @@
         <v>2157878.664554229</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.167</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7407,9 +7599,11 @@
         <v>2125338.689554229</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.165</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7444,9 +7638,11 @@
         <v>2061760.584554229</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.161</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7481,7 +7677,7 @@
         <v>2124838.07455423</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>3.16</v>
@@ -7520,7 +7716,7 @@
         <v>2190418.63955423</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>3.163</v>
@@ -7559,7 +7755,7 @@
         <v>2190418.63955423</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>3.167</v>
@@ -7598,7 +7794,7 @@
         <v>2140857.75455423</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>3.167</v>
@@ -7637,7 +7833,7 @@
         <v>2182909.41455423</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>3.161</v>
@@ -7676,7 +7872,7 @@
         <v>2259503.50955423</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>3.163</v>
@@ -7715,7 +7911,7 @@
         <v>2189918.02455423</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>3.166</v>
@@ -7754,7 +7950,7 @@
         <v>2271518.26955423</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>3.165</v>
@@ -7793,7 +7989,7 @@
         <v>4331449.65345423</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>3.167</v>
@@ -8831,18 +9027,16 @@
         <v>6301056.644354231</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
@@ -8872,11 +9066,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8909,11 +9099,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8946,11 +9132,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8979,15 +9161,11 @@
         <v>6327088.62435423</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9016,15 +9194,11 @@
         <v>6400679.029354231</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9057,11 +9231,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9090,15 +9260,11 @@
         <v>6455246.064354231</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9131,11 +9297,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +9330,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +9363,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9242,11 +9396,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9279,11 +9429,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9316,11 +9462,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9353,11 +9495,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9390,11 +9528,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9561,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +9594,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9501,11 +9627,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9538,11 +9660,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9571,15 +9689,11 @@
         <v>6621438.22935423</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9612,11 +9726,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9649,11 +9759,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9686,11 +9792,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9723,11 +9825,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9756,15 +9854,11 @@
         <v>6344784.30525423</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9797,11 +9891,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +9924,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9871,11 +9957,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9908,11 +9990,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9945,11 +10023,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9982,11 +10056,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10019,11 +10089,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10052,15 +10118,11 @@
         <v>6328393.85955423</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10089,15 +10151,11 @@
         <v>6284339.73955423</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10126,15 +10184,11 @@
         <v>6223765.32455423</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10167,11 +10221,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10204,11 +10254,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10241,11 +10287,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10278,11 +10320,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10315,11 +10353,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10352,11 +10386,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10389,11 +10419,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10426,11 +10452,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10463,11 +10485,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10500,11 +10518,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10537,11 +10551,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10574,11 +10584,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10611,11 +10617,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10650,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10685,11 +10683,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10722,11 +10716,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10759,11 +10749,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10796,11 +10782,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10833,11 +10815,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10866,15 +10844,11 @@
         <v>7203326.86535423</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10907,11 +10881,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +10914,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10981,11 +10947,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11018,11 +10980,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11055,11 +11013,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11092,11 +11046,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11129,11 +11079,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11166,11 +11112,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11199,15 +11141,11 @@
         <v>7546740.858554231</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11236,15 +11174,11 @@
         <v>7421168.221054231</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11273,15 +11207,11 @@
         <v>7371106.721054231</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11310,16 +11240,14 @@
         <v>7431516.395454231</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
       <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
@@ -11345,7 +11273,7 @@
         <v>7361430.295454231</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11378,7 +11306,7 @@
         <v>7384683.642354231</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11411,7 +11339,7 @@
         <v>7305085.857354231</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11444,7 +11372,7 @@
         <v>7164413.042354231</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11477,7 +11405,7 @@
         <v>7203461.012354231</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11510,7 +11438,7 @@
         <v>7132373.68235423</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11543,7 +11471,7 @@
         <v>7188943.177354231</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11576,7 +11504,7 @@
         <v>7189760.18135423</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11642,7 +11570,7 @@
         <v>7189259.566354231</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11675,7 +11603,7 @@
         <v>7117671.621354231</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11708,7 +11636,7 @@
         <v>7160223.896354231</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11741,7 +11669,7 @@
         <v>7195767.561354231</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11774,7 +11702,7 @@
         <v>7159222.666354232</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11807,7 +11735,7 @@
         <v>7148862.666354232</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11840,7 +11768,7 @@
         <v>7105309.161354232</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11906,7 +11834,7 @@
         <v>7512542.962054232</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11939,7 +11867,7 @@
         <v>7476498.682054232</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11972,7 +11900,7 @@
         <v>7400905.817054232</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12005,7 +11933,7 @@
         <v>7331820.947054232</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12038,7 +11966,7 @@
         <v>7409416.272054232</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12071,7 +11999,7 @@
         <v>7453971.007054232</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12104,7 +12032,7 @@
         <v>7399403.972054232</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12137,7 +12065,7 @@
         <v>7459477.772054232</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12170,7 +12098,7 @@
         <v>7556411.989354231</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12203,7 +12131,7 @@
         <v>7518865.864354231</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12236,7 +12164,7 @@
         <v>7272123.576654231</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12269,7 +12197,7 @@
         <v>7140766.811654232</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12302,7 +12230,7 @@
         <v>7210378.548454232</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12335,7 +12263,7 @@
         <v>6108125.288354231</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12368,7 +12296,7 @@
         <v>6108125.288354231</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -14018,7 +13946,7 @@
         <v>6438759.035554233</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14051,7 +13979,7 @@
         <v>6438759.035554233</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14084,7 +14012,7 @@
         <v>6385693.845554233</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14117,7 +14045,7 @@
         <v>6313104.670554233</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14150,7 +14078,7 @@
         <v>6379185.850554232</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14183,7 +14111,7 @@
         <v>6379185.850554232</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14216,7 +14144,7 @@
         <v>6333629.885554233</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14249,7 +14177,7 @@
         <v>6389698.765554233</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14282,7 +14210,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14315,7 +14243,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14348,7 +14276,7 @@
         <v>6392702.455554232</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14381,7 +14309,7 @@
         <v>6350712.526054232</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14414,7 +14342,7 @@
         <v>6318172.551054233</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14447,7 +14375,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14480,7 +14408,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14513,7 +14441,7 @@
         <v>6447531.221054234</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14546,7 +14474,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14579,7 +14507,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14612,7 +14540,7 @@
         <v>6457543.521054233</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14645,7 +14573,7 @@
         <v>6380949.426054234</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14678,7 +14606,7 @@
         <v>6450534.911054234</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14711,7 +14639,7 @@
         <v>6401302.429054234</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14744,7 +14672,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14777,7 +14705,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14810,7 +14738,7 @@
         <v>6364256.919054234</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14843,7 +14771,7 @@
         <v>6284459.134054234</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14876,7 +14804,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14909,7 +14837,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14942,7 +14870,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14975,7 +14903,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15008,7 +14936,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15041,7 +14969,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15074,7 +15002,7 @@
         <v>6255402.878854234</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15107,7 +15035,7 @@
         <v>6326990.823854234</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15140,7 +15068,7 @@
         <v>6284438.548854234</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15173,7 +15101,7 @@
         <v>6319982.213854234</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15206,7 +15134,7 @@
         <v>6282572.255854234</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15239,7 +15167,7 @@
         <v>6326125.760854234</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15272,7 +15200,7 @@
         <v>6396712.475854234</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15305,7 +15233,7 @@
         <v>6339642.365854234</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15338,7 +15266,7 @@
         <v>6375686.645854234</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15371,7 +15299,7 @@
         <v>6300093.780854234</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15404,7 +15332,7 @@
         <v>6231008.910854233</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15437,7 +15365,7 @@
         <v>6308604.235854234</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15470,7 +15398,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15503,7 +15431,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15536,7 +15464,7 @@
         <v>6150064.197954234</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15569,7 +15497,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15602,7 +15530,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15635,7 +15563,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15668,7 +15596,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15701,7 +15629,7 @@
         <v>6220150.297954233</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15734,7 +15662,7 @@
         <v>6156071.577954234</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15767,7 +15695,7 @@
         <v>6271713.642954234</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15800,7 +15728,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15833,7 +15761,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15866,7 +15794,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15899,7 +15827,7 @@
         <v>6154221.304954235</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15932,7 +15860,7 @@
         <v>6081131.514954234</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15965,7 +15893,7 @@
         <v>6140204.084954235</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15998,7 +15926,7 @@
         <v>6140204.084954235</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16031,7 +15959,7 @@
         <v>6198275.424954235</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16064,7 +15992,7 @@
         <v>6166236.064954234</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16097,7 +16025,7 @@
         <v>6252341.844954235</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16130,7 +16058,7 @@
         <v>6184445.849954234</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16163,7 +16091,7 @@
         <v>6132869.462154235</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16196,7 +16124,7 @@
         <v>6203618.187254235</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16229,7 +16157,7 @@
         <v>6189610.101154235</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16262,7 +16190,7 @@
         <v>6117809.671954235</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16295,7 +16223,7 @@
         <v>6080865.437354235</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16328,7 +16256,7 @@
         <v>6013932.794454235</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16361,7 +16289,7 @@
         <v>6082016.434454234</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16394,7 +16322,7 @@
         <v>6044970.924454235</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16427,7 +16355,7 @@
         <v>6088023.814454234</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16460,7 +16388,7 @@
         <v>6015935.254454235</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16493,7 +16421,7 @@
         <v>6063994.294454235</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16526,7 +16454,7 @@
         <v>6242590.849454234</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16559,7 +16487,7 @@
         <v>6322689.249454235</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16592,7 +16520,7 @@
         <v>6282490.930454235</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16625,7 +16553,7 @@
         <v>6408645.910454235</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16658,7 +16586,7 @@
         <v>6363590.560454235</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16724,7 +16652,7 @@
         <v>6416155.135454236</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16757,7 +16685,7 @@
         <v>6416155.135454236</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16790,7 +16718,7 @@
         <v>6484238.775454235</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18407,7 +18335,7 @@
         <v>6984908.38445424</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18440,7 +18368,7 @@
         <v>7055495.09945424</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18473,7 +18401,7 @@
         <v>7112565.20945424</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18506,7 +18434,7 @@
         <v>7076520.92945424</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18539,7 +18467,7 @@
         <v>7152113.79445424</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18572,7 +18500,7 @@
         <v>7221198.66445424</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18605,7 +18533,7 @@
         <v>7143603.33945424</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18638,7 +18566,7 @@
         <v>7242725.10945424</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18671,7 +18599,7 @@
         <v>7302798.90945424</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18704,7 +18632,7 @@
         <v>7253738.63945424</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18737,7 +18665,7 @@
         <v>7206680.82945424</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18770,7 +18698,7 @@
         <v>7206680.82945424</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18803,7 +18731,7 @@
         <v>7254239.25445424</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18836,7 +18764,7 @@
         <v>7195667.29945424</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18869,7 +18797,7 @@
         <v>7259746.01945424</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18902,7 +18830,7 @@
         <v>7221198.664454239</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18935,7 +18863,7 @@
         <v>7144103.954454239</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18968,7 +18896,7 @@
         <v>7269257.704454239</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19001,7 +18929,7 @@
         <v>7331834.579454239</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19034,7 +18962,7 @@
         <v>7266754.629454239</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19067,7 +18995,7 @@
         <v>7341921.342254239</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19100,7 +19028,7 @@
         <v>7282848.772254239</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19133,7 +19061,7 @@
         <v>7328905.352254239</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19166,7 +19094,7 @@
         <v>7238794.652254239</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19199,7 +19127,7 @@
         <v>7269832.782254239</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19232,7 +19160,7 @@
         <v>7269832.782254239</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19265,7 +19193,7 @@
         <v>7202249.757254238</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19298,7 +19226,7 @@
         <v>7120490.171254238</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19331,7 +19259,7 @@
         <v>7160539.371254238</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19364,7 +19292,7 @@
         <v>7227321.166254238</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19397,7 +19325,7 @@
         <v>7196783.651254239</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19430,7 +19358,7 @@
         <v>7196783.651254239</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19463,7 +19391,7 @@
         <v>7444965.246754238</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19496,7 +19424,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19529,7 +19457,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19562,7 +19490,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19595,7 +19523,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19628,7 +19556,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19661,7 +19589,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19694,7 +19622,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19727,7 +19655,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19760,7 +19688,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19793,7 +19721,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19826,7 +19754,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19859,7 +19787,7 @@
         <v>7470796.980754239</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19892,7 +19820,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19925,7 +19853,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19958,7 +19886,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19991,7 +19919,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20024,7 +19952,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20057,7 +19985,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20090,7 +20018,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20123,7 +20051,7 @@
         <v>7436402.727754239</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20156,7 +20084,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20189,7 +20117,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20222,7 +20150,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20255,7 +20183,7 @@
         <v>7434702.727754239</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20288,7 +20216,7 @@
         <v>7370123.392754239</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20321,7 +20249,7 @@
         <v>7425691.657754239</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20354,7 +20282,7 @@
         <v>7528033.863754239</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20387,7 +20315,7 @@
         <v>7521184.393854239</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20420,7 +20348,7 @@
         <v>7574249.583854239</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20453,7 +20381,7 @@
         <v>7646838.758854239</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20486,7 +20414,7 @@
         <v>7526691.15885424</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20519,7 +20447,7 @@
         <v>7526210.56885424</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20552,7 +20480,7 @@
         <v>7571766.53385424</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20585,7 +20513,7 @@
         <v>7627835.41385424</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20618,7 +20546,7 @@
         <v>7576587.298854239</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20651,7 +20579,7 @@
         <v>7576587.298854239</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20684,7 +20612,7 @@
         <v>7576587.298854239</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20717,7 +20645,7 @@
         <v>7740921.66815424</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20750,7 +20678,7 @@
         <v>7708381.69315424</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20783,7 +20711,7 @@
         <v>7771959.79815424</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20816,7 +20744,7 @@
         <v>7708882.30815424</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20849,7 +20777,7 @@
         <v>7774462.873154241</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20882,7 +20810,7 @@
         <v>7722398.913154241</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20915,7 +20843,7 @@
         <v>7507481.749654241</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20948,7 +20876,7 @@
         <v>7427520.864654241</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20981,7 +20909,7 @@
         <v>7385469.204654241</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21014,7 +20942,7 @@
         <v>7385469.204654241</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21047,7 +20975,7 @@
         <v>7455054.689654241</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21080,7 +21008,7 @@
         <v>7454854.689654241</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21113,7 +21041,7 @@
         <v>7503414.344654242</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21146,7 +21074,7 @@
         <v>7841470.380354241</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21179,7 +21107,7 @@
         <v>7891531.880354241</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21212,7 +21140,7 @@
         <v>7929578.620354242</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21245,7 +21173,7 @@
         <v>7859492.520354242</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21278,7 +21206,7 @@
         <v>7939090.305354242</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21311,7 +21239,7 @@
         <v>7939090.305354242</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21344,7 +21272,7 @@
         <v>8018187.475354242</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21377,7 +21305,7 @@
         <v>8018187.475354242</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21410,7 +21338,7 @@
         <v>7788439.882554242</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21443,7 +21371,7 @@
         <v>7845009.377554242</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21476,7 +21404,7 @@
         <v>7803958.947554243</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21509,7 +21437,7 @@
         <v>7844508.762554243</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21542,7 +21470,7 @@
         <v>7916096.707554244</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21575,7 +21503,7 @@
         <v>7958648.982554244</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21608,7 +21536,7 @@
         <v>7923105.317554244</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21641,7 +21569,7 @@
         <v>7959650.212554243</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21674,7 +21602,7 @@
         <v>8003203.717554243</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21707,7 +21635,7 @@
         <v>7932617.002554243</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21740,7 +21668,7 @@
         <v>7990424.017554243</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21773,7 +21701,7 @@
         <v>7954379.737554243</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21806,7 +21734,7 @@
         <v>7878786.872554243</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21839,7 +21767,7 @@
         <v>8025467.067554243</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21872,7 +21800,7 @@
         <v>8974407.501554243</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21905,7 +21833,7 @@
         <v>8919840.466554243</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21938,7 +21866,7 @@
         <v>9008986.067054244</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21971,7 +21899,7 @@
         <v>8959925.797054244</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22004,7 +21932,7 @@
         <v>9006983.607054245</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22037,7 +21965,7 @@
         <v>9044529.732054245</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22070,7 +21998,7 @@
         <v>8996971.307054244</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22103,7 +22031,7 @@
         <v>9055543.262054244</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22136,7 +22064,7 @@
         <v>8991464.542054243</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22169,7 +22097,7 @@
         <v>9107106.607054243</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22202,7 +22130,7 @@
         <v>9055543.262054242</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22235,7 +22163,7 @@
         <v>8981952.857054243</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22268,7 +22196,7 @@
         <v>9044529.732054243</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22301,7 +22229,7 @@
         <v>9109609.682054242</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22334,7 +22262,7 @@
         <v>9036519.892054243</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22367,7 +22295,7 @@
         <v>9095592.462054243</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22400,7 +22328,7 @@
         <v>9049535.882054243</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22433,7 +22361,7 @@
         <v>8990471.322054243</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22466,7 +22394,7 @@
         <v>9022510.682054242</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22499,7 +22427,7 @@
         <v>8991472.552054241</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22532,7 +22460,7 @@
         <v>9046540.202054242</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22565,7 +22493,7 @@
         <v>8978957.177054241</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22598,7 +22526,7 @@
         <v>9030019.907054242</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22631,7 +22559,7 @@
         <v>8989970.707054242</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22664,7 +22592,7 @@
         <v>8989970.707054242</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22697,7 +22625,7 @@
         <v>8959433.192054242</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22730,7 +22658,7 @@
         <v>8992974.397054242</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22763,7 +22691,7 @@
         <v>8957757.220354242</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22796,7 +22724,7 @@
         <v>8994802.730354242</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22829,7 +22757,7 @@
         <v>9037855.620354243</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22862,7 +22790,7 @@
         <v>9158003.220354242</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22895,7 +22823,7 @@
         <v>9079406.665354243</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22928,7 +22856,7 @@
         <v>9159505.065354243</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22961,7 +22889,7 @@
         <v>9119371.149354244</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22994,7 +22922,7 @@
         <v>9245526.129354244</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23258,7 +23186,7 @@
         <v>9206478.159354245</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23291,7 +23219,7 @@
         <v>9145078.730354246</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23324,7 +23252,7 @@
         <v>9219169.750354245</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23357,7 +23285,7 @@
         <v>9293761.385354245</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23489,7 +23417,7 @@
         <v>9203150.070354246</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23654,7 +23582,7 @@
         <v>9243430.952454245</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23819,7 +23747,7 @@
         <v>9245640.845354244</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23918,7 +23846,7 @@
         <v>9245840.845354244</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23951,7 +23879,7 @@
         <v>9245840.845354244</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23984,7 +23912,7 @@
         <v>9145840.845354244</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24017,7 +23945,7 @@
         <v>9146818.045354243</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24050,7 +23978,7 @@
         <v>9096818.045354243</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24083,7 +24011,7 @@
         <v>9096818.045354243</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24116,7 +24044,7 @@
         <v>8905624.452554243</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24149,7 +24077,7 @@
         <v>8849555.572554242</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24182,7 +24110,7 @@
         <v>8900117.687554242</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24215,7 +24143,7 @@
         <v>8821364.867554242</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24248,7 +24176,7 @@
         <v>8821364.867554242</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24281,7 +24209,7 @@
         <v>8788824.892554242</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24314,7 +24242,7 @@
         <v>8852402.997554243</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24347,7 +24275,7 @@
         <v>8789325.507554242</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24380,7 +24308,7 @@
         <v>8854906.072554242</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24413,7 +24341,7 @@
         <v>8802842.112554241</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24446,7 +24374,7 @@
         <v>8852402.997554241</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24479,7 +24407,7 @@
         <v>8810351.337554241</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24512,7 +24440,7 @@
         <v>8810351.337554241</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24545,7 +24473,7 @@
         <v>8879936.82255424</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24578,7 +24506,7 @@
         <v>8831377.167554241</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24611,7 +24539,7 @@
         <v>8798336.577554241</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24644,7 +24572,7 @@
         <v>8848398.077554241</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24677,7 +24605,7 @@
         <v>8810351.337554241</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24710,7 +24638,7 @@
         <v>8725111.11755424</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24743,7 +24671,7 @@
         <v>8663535.47255424</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24776,7 +24704,7 @@
         <v>8542404.499654241</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24809,7 +24737,7 @@
         <v>8581452.469654242</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24842,7 +24770,7 @@
         <v>8581452.469654242</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24875,7 +24803,7 @@
         <v>8581452.469654242</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24908,7 +24836,7 @@
         <v>8622779.867354242</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24941,7 +24869,7 @@
         <v>8582230.052354243</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24974,7 +24902,7 @@
         <v>8468089.832354242</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25007,7 +24935,7 @@
         <v>8503633.497354241</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25040,7 +24968,7 @@
         <v>8467088.602354242</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25073,7 +25001,7 @@
         <v>8423535.097354241</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25106,7 +25034,7 @@
         <v>8352948.382354241</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25139,7 +25067,7 @@
         <v>8410018.49235424</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25667,7 +25595,7 @@
         <v>8529600.282354239</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25700,7 +25628,7 @@
         <v>8478036.937354239</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25733,7 +25661,7 @@
         <v>8551927.342354238</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25766,7 +25694,7 @@
         <v>8489350.467354238</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25799,7 +25727,7 @@
         <v>8489650.467354238</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25832,7 +25760,7 @@
         <v>8424570.517354239</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25865,7 +25793,7 @@
         <v>8424570.517354239</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25898,7 +25826,7 @@
         <v>8365497.947354238</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25931,7 +25859,7 @@
         <v>8365297.947354238</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25964,7 +25892,7 @@
         <v>8278359.255254239</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25997,7 +25925,7 @@
         <v>8278359.255254239</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26030,7 +25958,7 @@
         <v>8310398.615254239</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26063,7 +25991,7 @@
         <v>8341436.745254239</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26096,7 +26024,7 @@
         <v>8396504.395254239</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26129,7 +26057,7 @@
         <v>8277858.64025424</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26162,7 +26090,7 @@
         <v>8237809.440254239</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26195,7 +26123,7 @@
         <v>8304391.235254239</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26228,7 +26156,7 @@
         <v>8273853.72025424</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26261,7 +26189,7 @@
         <v>8294193.72025424</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26294,7 +26222,7 @@
         <v>8362277.360254239</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26327,7 +26255,7 @@
         <v>8481821.07355424</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26360,7 +26288,7 @@
         <v>7919204.65865424</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26393,7 +26321,7 @@
         <v>7991293.21865424</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26426,7 +26354,7 @@
         <v>8039352.25865424</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26459,7 +26387,7 @@
         <v>7960755.70365424</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26492,7 +26420,7 @@
         <v>8040854.10365424</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26525,7 +26453,7 @@
         <v>8000784.878654241</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26558,7 +26486,7 @@
         <v>8069369.133654241</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26591,7 +26519,7 @@
         <v>8171995.208654241</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26624,7 +26552,7 @@
         <v>8130444.163654241</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26657,7 +26585,7 @@
         <v>8077879.588654241</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26690,7 +26618,7 @@
         <v>8139955.84865424</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26723,7 +26651,7 @@
         <v>8105914.02865424</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26756,7 +26684,7 @@
         <v>8174622.43665424</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26789,7 +26717,7 @@
         <v>8139579.38665424</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26822,7 +26750,7 @@
         <v>8095525.26665424</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26855,7 +26783,7 @@
         <v>8034950.85165424</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26888,7 +26816,7 @@
         <v>7960859.83165424</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26921,7 +26849,7 @@
         <v>8035451.46665424</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26954,7 +26882,7 @@
         <v>8035451.46665424</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26987,7 +26915,7 @@
         <v>7974376.43665424</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27020,7 +26948,7 @@
         <v>7898282.956654239</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27053,7 +26981,7 @@
         <v>7898282.956654239</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27086,7 +27014,7 @@
         <v>7823190.706654239</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27119,7 +27047,7 @@
         <v>7890273.11665424</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27152,7 +27080,7 @@
         <v>7825693.78165424</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27185,7 +27113,7 @@
         <v>7881262.046654239</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27218,7 +27146,7 @@
         <v>7821688.86165424</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27251,7 +27179,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27284,7 +27212,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27317,7 +27245,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27350,7 +27278,7 @@
         <v>7901402.78965424</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27383,7 +27311,7 @@
         <v>7957471.66965424</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27416,7 +27344,7 @@
         <v>8008033.78465424</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27449,7 +27377,7 @@
         <v>7929937.84465424</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27482,7 +27410,7 @@
         <v>7983503.649654239</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27515,7 +27443,7 @@
         <v>8016043.624654239</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27548,7 +27476,7 @@
         <v>7952465.519654239</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27581,7 +27509,7 @@
         <v>8018398.749654239</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27614,7 +27542,7 @@
         <v>7952818.184654239</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27647,7 +27575,7 @@
         <v>7899819.852654238</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27680,7 +27608,7 @@
         <v>7899819.852654238</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27746,7 +27674,7 @@
         <v>7865434.059354238</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27779,7 +27707,7 @@
         <v>7795848.574354238</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27812,7 +27740,7 @@
         <v>7844408.229354238</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27845,7 +27773,7 @@
         <v>7844408.229354238</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27878,7 +27806,7 @@
         <v>7794346.729354238</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27911,7 +27839,7 @@
         <v>7832393.469354238</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27944,7 +27872,7 @@
         <v>7762307.369354239</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27977,7 +27905,7 @@
         <v>7841905.154354239</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28010,7 +27938,7 @@
         <v>7841748.512654239</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28043,7 +27971,7 @@
         <v>7903324.157654239</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28076,7 +28004,7 @@
         <v>7982421.327654239</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28109,7 +28037,7 @@
         <v>7943373.357654239</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28142,7 +28070,7 @@
         <v>7872286.027654239</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28175,7 +28103,7 @@
         <v>7928855.522654239</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28208,7 +28136,7 @@
         <v>7887805.092654239</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28241,7 +28169,7 @@
         <v>7847255.277654239</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28274,7 +28202,7 @@
         <v>7918843.222654239</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28307,7 +28235,7 @@
         <v>7777570.74765424</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28340,7 +28268,7 @@
         <v>7813114.41265424</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28373,7 +28301,7 @@
         <v>7893212.81265424</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28406,7 +28334,7 @@
         <v>7822626.09765424</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28439,7 +28367,7 @@
         <v>7765555.98765424</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28472,7 +28400,7 @@
         <v>7801600.26765424</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28505,7 +28433,7 @@
         <v>7878090.23465424</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28538,7 +28466,7 @@
         <v>7809005.36465424</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28571,7 +28499,7 @@
         <v>7731410.03965424</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28604,7 +28532,7 @@
         <v>7830531.80965424</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28637,7 +28565,7 @@
         <v>7770458.00965424</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28670,7 +28598,7 @@
         <v>7721397.73965424</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28703,7 +28631,7 @@
         <v>7768455.54965424</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28736,7 +28664,7 @@
         <v>7730909.42465424</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28769,7 +28697,7 @@
         <v>7778467.84965424</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28802,7 +28730,7 @@
         <v>7779061.62265424</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28835,7 +28763,7 @@
         <v>7720489.66765424</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28868,7 +28796,7 @@
         <v>7656410.94765424</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28901,7 +28829,7 @@
         <v>7694958.30265424</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28934,7 +28862,7 @@
         <v>7617863.59265424</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28967,7 +28895,7 @@
         <v>7566300.247654241</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29000,7 +28928,7 @@
         <v>7639890.652654241</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29033,7 +28961,7 @@
         <v>7577313.777654241</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29066,7 +28994,7 @@
         <v>7577313.777654241</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29099,7 +29027,7 @@
         <v>7636386.347654241</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29132,7 +29060,7 @@
         <v>7682442.927654241</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29165,7 +29093,7 @@
         <v>7624371.587654241</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29198,7 +29126,7 @@
         <v>7656410.947654242</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29231,7 +29159,7 @@
         <v>7625372.817654242</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29264,7 +29192,7 @@
         <v>7680440.467654242</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29363,7 +29291,7 @@
         <v>7588327.307654242</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29495,7 +29423,7 @@
         <v>7686539.960654241</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29792,7 +29720,7 @@
         <v>7654660.600654241</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -33004,6 +32932,6 @@
       <c r="M948" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest CON.xlsx
+++ b/BackTest/2020-01-19 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1474.712854228797</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,1530 +484,1334 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="F4" t="n">
+        <v>69585.485</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-117171.0421457712</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="F5" t="n">
+        <v>48559.655</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-68611.38714577121</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33040.59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-101651.9771457712</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="F7" t="n">
+        <v>88108.24000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-189760.2171457712</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>3.159</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="C8" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="F8" t="n">
+        <v>70086.10000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-119674.1171457712</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="F9" t="n">
+        <v>141173.43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-260847.5471457712</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="F10" t="n">
+        <v>79097.17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-181750.3771457712</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="F11" t="n">
+        <v>148189.1469</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-329939.5240457712</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="F12" t="n">
+        <v>700614.5088</v>
+      </c>
+      <c r="G12" t="n">
+        <v>370674.9847542288</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="F13" t="n">
+        <v>57262.117</v>
+      </c>
+      <c r="G13" t="n">
+        <v>370674.9847542288</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="F14" t="n">
+        <v>41050.43</v>
+      </c>
+      <c r="G14" t="n">
+        <v>329624.5547542288</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="F15" t="n">
+        <v>40549.815</v>
+      </c>
+      <c r="G15" t="n">
+        <v>370174.3697542288</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="F16" t="n">
+        <v>71587.94500000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>298586.4247542288</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="F17" t="n">
+        <v>42552.275</v>
+      </c>
+      <c r="G17" t="n">
+        <v>341138.6997542288</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="F18" t="n">
+        <v>35543.665</v>
+      </c>
+      <c r="G18" t="n">
+        <v>305595.0347542288</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="F19" t="n">
+        <v>36544.895</v>
+      </c>
+      <c r="G19" t="n">
+        <v>342139.9297542289</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="F20" t="n">
+        <v>43553.505</v>
+      </c>
+      <c r="G20" t="n">
+        <v>298586.4247542289</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="F21" t="n">
+        <v>70586.715</v>
+      </c>
+      <c r="G21" t="n">
+        <v>369173.1397542289</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="F22" t="n">
+        <v>57070.11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>369173.1397542289</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="F23" t="n">
+        <v>36044.28</v>
+      </c>
+      <c r="G23" t="n">
+        <v>333128.8597542288</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="F24" t="n">
+        <v>75592.86500000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>408721.7247542288</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>69084.87</v>
+      </c>
+      <c r="G25" t="n">
+        <v>477806.5947542288</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>77595.325</v>
+      </c>
+      <c r="G26" t="n">
+        <v>400211.2697542288</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F27" t="n">
+        <v>359225.4714</v>
+      </c>
+      <c r="G27" t="n">
+        <v>759436.7411542288</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="F28" t="n">
+        <v>54567.035</v>
+      </c>
+      <c r="G28" t="n">
+        <v>704869.7061542288</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60073.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>644795.9061542287</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="F30" t="n">
+        <v>49060.27</v>
+      </c>
+      <c r="G30" t="n">
+        <v>595735.6361542287</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="F31" t="n">
+        <v>47057.81</v>
+      </c>
+      <c r="G31" t="n">
+        <v>642793.4461542286</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="F32" t="n">
+        <v>37546.125</v>
+      </c>
+      <c r="G32" t="n">
+        <v>605247.3211542286</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="F33" t="n">
+        <v>47558.425</v>
+      </c>
+      <c r="G33" t="n">
+        <v>652805.7461542287</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="F34" t="n">
+        <v>59184.478</v>
+      </c>
+      <c r="G34" t="n">
+        <v>711990.2241542287</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="F35" t="n">
+        <v>64078.72</v>
+      </c>
+      <c r="G35" t="n">
+        <v>647911.5041542287</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="F36" t="n">
+        <v>38547.355</v>
+      </c>
+      <c r="G36" t="n">
+        <v>686458.8591542287</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="F37" t="n">
+        <v>77094.71000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>609364.1491542287</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="F38" t="n">
+        <v>51563.345</v>
+      </c>
+      <c r="G38" t="n">
+        <v>557800.8041542288</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="F39" t="n">
+        <v>73590.405</v>
+      </c>
+      <c r="G39" t="n">
+        <v>631391.2091542288</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="F40" t="n">
+        <v>62576.875</v>
+      </c>
+      <c r="G40" t="n">
+        <v>568814.3341542288</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="F41" t="n">
+        <v>138169.74</v>
+      </c>
+      <c r="G41" t="n">
+        <v>706984.0741542288</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="F42" t="n">
+        <v>59433.013</v>
+      </c>
+      <c r="G42" t="n">
+        <v>647551.0611542288</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="F4" t="n">
-        <v>69585.485</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-117171.0421457712</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="F5" t="n">
-        <v>48559.655</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-68611.38714577121</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33040.59</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-101651.9771457712</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88108.24000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-189760.2171457712</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="F8" t="n">
-        <v>70086.10000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-119674.1171457712</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="F9" t="n">
-        <v>141173.43</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-260847.5471457712</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="F10" t="n">
-        <v>79097.17</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-181750.3771457712</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="F11" t="n">
-        <v>148189.1469</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-329939.5240457712</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="F12" t="n">
-        <v>700614.5088</v>
-      </c>
-      <c r="G12" t="n">
-        <v>370674.9847542288</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="F13" t="n">
-        <v>57262.117</v>
-      </c>
-      <c r="G13" t="n">
-        <v>370674.9847542288</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="F14" t="n">
-        <v>41050.43</v>
-      </c>
-      <c r="G14" t="n">
-        <v>329624.5547542288</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="F15" t="n">
-        <v>40549.815</v>
-      </c>
-      <c r="G15" t="n">
-        <v>370174.3697542288</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="F16" t="n">
-        <v>71587.94500000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>298586.4247542288</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="F17" t="n">
-        <v>42552.275</v>
-      </c>
-      <c r="G17" t="n">
-        <v>341138.6997542288</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="F18" t="n">
-        <v>35543.665</v>
-      </c>
-      <c r="G18" t="n">
-        <v>305595.0347542288</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="F19" t="n">
-        <v>36544.895</v>
-      </c>
-      <c r="G19" t="n">
-        <v>342139.9297542289</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="F20" t="n">
-        <v>43553.505</v>
-      </c>
-      <c r="G20" t="n">
-        <v>298586.4247542289</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="F21" t="n">
-        <v>70586.715</v>
-      </c>
-      <c r="G21" t="n">
-        <v>369173.1397542289</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="F22" t="n">
-        <v>57070.11</v>
-      </c>
-      <c r="G22" t="n">
-        <v>369173.1397542289</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="F23" t="n">
-        <v>36044.28</v>
-      </c>
-      <c r="G23" t="n">
-        <v>333128.8597542288</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="F24" t="n">
-        <v>75592.86500000001</v>
-      </c>
-      <c r="G24" t="n">
-        <v>408721.7247542288</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="F25" t="n">
-        <v>69084.87</v>
-      </c>
-      <c r="G25" t="n">
-        <v>477806.5947542288</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F26" t="n">
-        <v>77595.325</v>
-      </c>
-      <c r="G26" t="n">
-        <v>400211.2697542288</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F27" t="n">
-        <v>359225.4714</v>
-      </c>
-      <c r="G27" t="n">
-        <v>759436.7411542288</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="F28" t="n">
-        <v>54567.035</v>
-      </c>
-      <c r="G28" t="n">
-        <v>704869.7061542288</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="F29" t="n">
-        <v>60073.8</v>
-      </c>
-      <c r="G29" t="n">
-        <v>644795.9061542287</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="F30" t="n">
-        <v>49060.27</v>
-      </c>
-      <c r="G30" t="n">
-        <v>595735.6361542287</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="F31" t="n">
-        <v>47057.81</v>
-      </c>
-      <c r="G31" t="n">
-        <v>642793.4461542286</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="F32" t="n">
-        <v>37546.125</v>
-      </c>
-      <c r="G32" t="n">
-        <v>605247.3211542286</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="F33" t="n">
-        <v>47558.425</v>
-      </c>
-      <c r="G33" t="n">
-        <v>652805.7461542287</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="F34" t="n">
-        <v>59184.478</v>
-      </c>
-      <c r="G34" t="n">
-        <v>711990.2241542287</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="F35" t="n">
-        <v>64078.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>647911.5041542287</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="F36" t="n">
-        <v>38547.355</v>
-      </c>
-      <c r="G36" t="n">
-        <v>686458.8591542287</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="D37" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="F37" t="n">
-        <v>77094.71000000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>609364.1491542287</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="F38" t="n">
-        <v>51563.345</v>
-      </c>
-      <c r="G38" t="n">
-        <v>557800.8041542288</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="F39" t="n">
-        <v>73590.405</v>
-      </c>
-      <c r="G39" t="n">
-        <v>631391.2091542288</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="F40" t="n">
-        <v>62576.875</v>
-      </c>
-      <c r="G40" t="n">
-        <v>568814.3341542288</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="F41" t="n">
-        <v>138169.74</v>
-      </c>
-      <c r="G41" t="n">
-        <v>706984.0741542288</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="F42" t="n">
-        <v>59433.013</v>
-      </c>
-      <c r="G42" t="n">
-        <v>647551.0611542288</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2041,7 +1845,9 @@
       <c r="I43" t="n">
         <v>3.155</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,7 +1886,9 @@
       <c r="I44" t="n">
         <v>3.156</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,7 +1927,9 @@
       <c r="I45" t="n">
         <v>3.157</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2153,12 +1963,12 @@
         <v>814756.4711542287</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2192,12 +2002,12 @@
         <v>759688.8211542286</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2231,12 +2041,12 @@
         <v>691105.7961542286</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2270,12 +2080,12 @@
         <v>742168.5261542286</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2309,12 +2119,12 @@
         <v>702119.3261542286</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2348,12 +2158,12 @@
         <v>390226.5446542287</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2392,7 +2202,9 @@
       <c r="I52" t="n">
         <v>3.14</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2431,7 +2243,9 @@
       <c r="I53" t="n">
         <v>3.153</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2465,12 +2279,12 @@
         <v>526285.6916542287</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2504,12 +2318,12 @@
         <v>483232.8016542287</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2548,7 +2362,9 @@
       <c r="I56" t="n">
         <v>3.154</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,7 +2403,9 @@
       <c r="I57" t="n">
         <v>3.153</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2621,12 +2439,12 @@
         <v>514251.7738542287</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2660,12 +2478,12 @@
         <v>434153.3738542288</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,12 +2517,12 @@
         <v>394604.7888542287</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,12 +2556,12 @@
         <v>326020.5338542287</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>3.159</v>
       </c>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2777,12 +2595,12 @@
         <v>383591.2588542287</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2816,12 +2634,12 @@
         <v>338535.9088542287</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2860,7 +2678,9 @@
       <c r="I64" t="n">
         <v>3.152</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2894,12 +2714,12 @@
         <v>327522.3788542287</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2938,7 +2758,9 @@
       <c r="I66" t="n">
         <v>3.153</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2977,7 +2799,9 @@
       <c r="I67" t="n">
         <v>3.157</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,7 +2840,9 @@
       <c r="I68" t="n">
         <v>3.152</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,7 +2881,9 @@
       <c r="I69" t="n">
         <v>3.156</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,12 +2917,12 @@
         <v>563312.0438542287</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,12 +2956,12 @@
         <v>563312.0438542287</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,12 +2995,12 @@
         <v>1267472.004054229</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,12 +3034,12 @@
         <v>1314950.331054229</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,12 +3073,12 @@
         <v>1253875.301054229</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3287,7 +3115,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,12 +3151,12 @@
         <v>1177781.821054229</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,12 +3190,12 @@
         <v>1272254.188954229</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,12 +3229,12 @@
         <v>1205171.778954229</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,12 +3268,12 @@
         <v>1269751.113954229</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3477,12 +3307,12 @@
         <v>1154609.663954229</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,12 +3346,12 @@
         <v>1207674.853954229</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,7 +3388,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,12 +3424,12 @@
         <v>1141593.673954229</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,12 +3463,12 @@
         <v>1087527.253954229</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,12 +3502,12 @@
         <v>1041971.288954229</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,12 +3541,12 @@
         <v>1148602.283954229</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,12 +3580,12 @@
         <v>1226698.223954229</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,12 +3619,12 @@
         <v>1226698.223954229</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,12 +3658,12 @@
         <v>1194158.248954229</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,12 +3697,12 @@
         <v>1257736.353954229</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,12 +3736,12 @@
         <v>1194658.863954229</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,12 +3775,12 @@
         <v>1260239.428954229</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,12 +3814,12 @@
         <v>1312303.388954229</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,12 +3853,12 @@
         <v>1313056.313954229</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,12 +3892,12 @@
         <v>1221443.768954229</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,7 +3934,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,12 +3970,12 @@
         <v>1075264.188954229</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4175,12 +4009,12 @@
         <v>1123823.843954229</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4217,7 +4051,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,7 +4090,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,12 +4126,12 @@
         <v>1035715.603954229</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4327,12 +4165,12 @@
         <v>1105801.703954229</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,7 +4207,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,7 +4246,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4440,12 +4282,12 @@
         <v>1276302.318954229</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,12 +4321,12 @@
         <v>1276302.318954229</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4518,12 +4360,12 @@
         <v>1347389.648954229</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4557,12 +4399,12 @@
         <v>1347389.648954229</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4596,12 +4438,12 @@
         <v>1306839.833954229</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4635,12 +4477,12 @@
         <v>1235251.888954229</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4674,12 +4516,12 @@
         <v>1156715.407954229</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4713,12 +4555,12 @@
         <v>1193260.302954229</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4752,12 +4594,12 @@
         <v>1149706.797954229</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
         <v>3.159</v>
       </c>
-      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,7 +4638,9 @@
       <c r="I114" t="n">
         <v>3.154</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4835,7 +4679,9 @@
       <c r="I115" t="n">
         <v>3.154</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4869,12 +4715,12 @@
         <v>1170732.627954229</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,12 +4754,12 @@
         <v>1246325.492954229</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4947,12 +4793,12 @@
         <v>1177240.622954229</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,12 +4832,12 @@
         <v>1254835.947954229</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
         <v>3.159</v>
       </c>
-      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,12 +4871,12 @@
         <v>1204607.585254229</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,12 +4910,12 @@
         <v>1259174.620254229</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5108,7 +4954,9 @@
       <c r="I122" t="n">
         <v>3.151</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5147,7 +4995,9 @@
       <c r="I123" t="n">
         <v>3.154</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,7 +5036,9 @@
       <c r="I124" t="n">
         <v>3.154</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,7 +5077,9 @@
       <c r="I125" t="n">
         <v>3.159</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,7 +5118,9 @@
       <c r="I126" t="n">
         <v>3.157</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5303,7 +5159,9 @@
       <c r="I127" t="n">
         <v>3.158</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,7 +5200,9 @@
       <c r="I128" t="n">
         <v>3.151</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5381,7 +5241,9 @@
       <c r="I129" t="n">
         <v>3.153</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5420,7 +5282,9 @@
       <c r="I130" t="n">
         <v>3.155</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5459,7 +5323,9 @@
       <c r="I131" t="n">
         <v>3.152</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5498,7 +5364,9 @@
       <c r="I132" t="n">
         <v>3.154</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,7 +5405,9 @@
       <c r="I133" t="n">
         <v>3.159</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,7 +5446,9 @@
       <c r="I134" t="n">
         <v>3.156</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,7 +5487,9 @@
       <c r="I135" t="n">
         <v>3.152</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5654,7 +5528,9 @@
       <c r="I136" t="n">
         <v>3.151</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5693,7 +5569,9 @@
       <c r="I137" t="n">
         <v>3.154</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5732,7 +5610,9 @@
       <c r="I138" t="n">
         <v>3.152</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5771,7 +5651,9 @@
       <c r="I139" t="n">
         <v>3.15</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,7 +5692,9 @@
       <c r="I140" t="n">
         <v>3.147</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,7 +5733,9 @@
       <c r="I141" t="n">
         <v>3.15</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5888,7 +5774,9 @@
       <c r="I142" t="n">
         <v>3.159</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5922,12 +5810,12 @@
         <v>1482948.615754229</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
         <v>3.159</v>
       </c>
-      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5966,7 +5854,9 @@
       <c r="I144" t="n">
         <v>3.156</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,12 +5890,12 @@
         <v>1605599.290754229</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,12 +5929,12 @@
         <v>1554536.560754229</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
         <v>3.159</v>
       </c>
-      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,12 +5968,12 @@
         <v>1594585.760754229</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6117,12 +6007,12 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
         <v>3.159</v>
       </c>
-      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6156,12 +6046,12 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6195,12 +6085,12 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,12 +6124,12 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6273,12 +6163,12 @@
         <v>1522330.965754229</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6312,12 +6202,12 @@
         <v>1594419.525754229</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,12 +6241,12 @@
         <v>1546360.485754229</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
         <v>3.159</v>
       </c>
-      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,12 +6280,12 @@
         <v>1624957.040754229</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6429,12 +6319,12 @@
         <v>1505310.055754229</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
         <v>3.159</v>
       </c>
-      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6468,12 +6358,12 @@
         <v>1573894.310754229</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,12 +6397,12 @@
         <v>1516323.585754229</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
         <v>3.159</v>
       </c>
-      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,12 +6436,12 @@
         <v>1561378.935754229</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6585,12 +6475,12 @@
         <v>1519827.890754229</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
         <v>3.159</v>
       </c>
-      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6624,12 +6514,12 @@
         <v>1519827.890754229</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6663,12 +6553,12 @@
         <v>1519827.890754229</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6702,12 +6592,12 @@
         <v>1553869.710754229</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6741,12 +6631,12 @@
         <v>1553869.710754229</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
         <v>3.159</v>
       </c>
-      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6780,12 +6670,12 @@
         <v>1518826.660754229</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
         <v>3.159</v>
       </c>
-      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,12 +6709,12 @@
         <v>1562880.780754229</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6858,12 +6748,12 @@
         <v>1562880.780754229</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
         <v>3.159</v>
       </c>
-      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6897,12 +6787,12 @@
         <v>1802969.404554229</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
         <v>3.159</v>
       </c>
-      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6936,12 +6826,12 @@
         <v>2002059.242554229</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6975,12 +6865,12 @@
         <v>2002059.242554229</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,12 +6904,12 @@
         <v>1940984.212554229</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7053,12 +6943,12 @@
         <v>2017077.692554229</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.153</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,12 +6982,12 @@
         <v>2048616.437554229</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7131,12 +7021,12 @@
         <v>2190791.097554229</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,12 +7060,12 @@
         <v>2126211.762554229</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7209,12 +7099,12 @@
         <v>2181780.027554229</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7248,12 +7138,12 @@
         <v>2181780.027554229</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7287,12 +7177,12 @@
         <v>2234845.217554229</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,12 +7216,12 @@
         <v>2162256.042554229</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7365,12 +7255,12 @@
         <v>2228337.22255423</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7404,12 +7294,12 @@
         <v>2128714.83755423</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,12 +7333,12 @@
         <v>2184783.71755423</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7482,12 +7372,12 @@
         <v>2133348.52955423</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7521,12 +7411,12 @@
         <v>2211444.46955423</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7560,12 +7450,12 @@
         <v>2157878.664554229</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7599,12 +7489,12 @@
         <v>2125338.689554229</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7638,12 +7528,12 @@
         <v>2061760.584554229</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7677,12 +7567,12 @@
         <v>2124838.07455423</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7716,12 +7606,12 @@
         <v>2190418.63955423</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7755,12 +7645,12 @@
         <v>2190418.63955423</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7794,12 +7684,12 @@
         <v>2140857.75455423</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7833,12 +7723,12 @@
         <v>2182909.41455423</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7872,12 +7762,12 @@
         <v>2259503.50955423</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7911,12 +7801,12 @@
         <v>2189918.02455423</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.166</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7950,12 +7840,12 @@
         <v>2271518.26955423</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7989,12 +7879,12 @@
         <v>4331449.65345423</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8031,7 +7921,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8068,7 +7960,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,17 +7996,19 @@
         <v>6116710.61935423</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.159</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>1.02380658436214</v>
       </c>
       <c r="M199" t="inlineStr"/>
     </row>
@@ -8139,15 +8035,11 @@
         <v>5975537.189354231</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8176,15 +8068,11 @@
         <v>6054634.359354231</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8217,11 +8105,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8254,11 +8138,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8291,11 +8171,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8328,11 +8204,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +8237,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8402,11 +8270,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8439,11 +8303,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8476,11 +8336,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8513,11 +8369,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8550,11 +8402,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8435,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8624,11 +8468,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8661,11 +8501,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8698,11 +8534,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8735,11 +8567,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8772,11 +8600,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8809,11 +8633,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8846,11 +8666,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8883,11 +8699,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +8732,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +8765,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8994,11 +8798,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9027,16 +8827,14 @@
         <v>6301056.644354231</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
       <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
@@ -9161,7 +8959,7 @@
         <v>6327088.62435423</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9194,7 +8992,7 @@
         <v>6400679.029354231</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9260,7 +9058,7 @@
         <v>6455246.064354231</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9293,7 +9091,7 @@
         <v>6514318.634354231</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9326,7 +9124,7 @@
         <v>6560375.214354231</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9689,7 +9487,7 @@
         <v>6621438.22935423</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9854,7 +9652,7 @@
         <v>6344784.30525423</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10118,7 +9916,7 @@
         <v>6328393.85955423</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10151,7 +9949,7 @@
         <v>6284339.73955423</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10184,7 +9982,7 @@
         <v>6223765.32455423</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10844,7 +10642,7 @@
         <v>7203326.86535423</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11141,7 +10939,7 @@
         <v>7546740.858554231</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11174,7 +10972,7 @@
         <v>7421168.221054231</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11207,7 +11005,7 @@
         <v>7371106.721054231</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11240,7 +11038,7 @@
         <v>7431516.395454231</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11273,7 +11071,7 @@
         <v>7361430.295454231</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11306,7 +11104,7 @@
         <v>7384683.642354231</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11339,7 +11137,7 @@
         <v>7305085.857354231</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11372,7 +11170,7 @@
         <v>7164413.042354231</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11405,7 +11203,7 @@
         <v>7203461.012354231</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11438,7 +11236,7 @@
         <v>7132373.68235423</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11471,7 +11269,7 @@
         <v>7188943.177354231</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11504,7 +11302,7 @@
         <v>7189760.18135423</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11570,7 +11368,7 @@
         <v>7189259.566354231</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11603,7 +11401,7 @@
         <v>7117671.621354231</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11636,7 +11434,7 @@
         <v>7160223.896354231</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11669,7 +11467,7 @@
         <v>7195767.561354231</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11702,7 +11500,7 @@
         <v>7159222.666354232</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11735,7 +11533,7 @@
         <v>7148862.666354232</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11768,7 +11566,7 @@
         <v>7105309.161354232</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11834,7 +11632,7 @@
         <v>7512542.962054232</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11867,7 +11665,7 @@
         <v>7476498.682054232</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11900,7 +11698,7 @@
         <v>7400905.817054232</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11933,7 +11731,7 @@
         <v>7331820.947054232</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11966,7 +11764,7 @@
         <v>7409416.272054232</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11999,7 +11797,7 @@
         <v>7453971.007054232</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12032,7 +11830,7 @@
         <v>7399403.972054232</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12065,7 +11863,7 @@
         <v>7459477.772054232</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12098,7 +11896,7 @@
         <v>7556411.989354231</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12131,7 +11929,7 @@
         <v>7518865.864354231</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12164,7 +11962,7 @@
         <v>7272123.576654231</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12197,7 +11995,7 @@
         <v>7140766.811654232</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12230,7 +12028,7 @@
         <v>7210378.548454232</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12263,7 +12061,7 @@
         <v>6108125.288354231</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12296,7 +12094,7 @@
         <v>6108125.288354231</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -13517,7 +13315,7 @@
         <v>6412363.392854232</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13550,7 +13348,7 @@
         <v>6408922.135554233</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13583,7 +13381,7 @@
         <v>6408922.135554233</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13616,7 +13414,7 @@
         <v>6452976.255554233</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13649,7 +13447,7 @@
         <v>6318310.820554233</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13682,7 +13480,7 @@
         <v>6243719.185554233</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13946,7 +13744,7 @@
         <v>6438759.035554233</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13979,7 +13777,7 @@
         <v>6438759.035554233</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14012,7 +13810,7 @@
         <v>6385693.845554233</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14045,7 +13843,7 @@
         <v>6313104.670554233</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14078,7 +13876,7 @@
         <v>6379185.850554232</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14111,7 +13909,7 @@
         <v>6379185.850554232</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14144,7 +13942,7 @@
         <v>6333629.885554233</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14177,7 +13975,7 @@
         <v>6389698.765554233</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14210,7 +14008,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14243,7 +14041,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14276,7 +14074,7 @@
         <v>6392702.455554232</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14309,7 +14107,7 @@
         <v>6350712.526054232</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14342,7 +14140,7 @@
         <v>6318172.551054233</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14375,7 +14173,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14408,7 +14206,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14441,7 +14239,7 @@
         <v>6447531.221054234</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14474,7 +14272,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14507,7 +14305,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14540,7 +14338,7 @@
         <v>6457543.521054233</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14573,7 +14371,7 @@
         <v>6380949.426054234</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14606,7 +14404,7 @@
         <v>6450534.911054234</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14639,7 +14437,7 @@
         <v>6401302.429054234</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14672,7 +14470,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14705,7 +14503,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14738,7 +14536,7 @@
         <v>6364256.919054234</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14771,7 +14569,7 @@
         <v>6284459.134054234</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14804,7 +14602,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14837,7 +14635,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14870,7 +14668,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14903,7 +14701,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14936,7 +14734,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14969,7 +14767,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15002,7 +14800,7 @@
         <v>6255402.878854234</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15035,7 +14833,7 @@
         <v>6326990.823854234</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15068,7 +14866,7 @@
         <v>6284438.548854234</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15101,7 +14899,7 @@
         <v>6319982.213854234</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15134,7 +14932,7 @@
         <v>6282572.255854234</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15167,7 +14965,7 @@
         <v>6326125.760854234</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15200,7 +14998,7 @@
         <v>6396712.475854234</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15233,7 +15031,7 @@
         <v>6339642.365854234</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15266,7 +15064,7 @@
         <v>6375686.645854234</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15299,7 +15097,7 @@
         <v>6300093.780854234</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15332,7 +15130,7 @@
         <v>6231008.910854233</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15365,7 +15163,7 @@
         <v>6308604.235854234</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15398,7 +15196,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15431,7 +15229,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15464,7 +15262,7 @@
         <v>6150064.197954234</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15497,7 +15295,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15530,7 +15328,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15563,7 +15361,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15596,7 +15394,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15629,7 +15427,7 @@
         <v>6220150.297954233</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15662,7 +15460,7 @@
         <v>6156071.577954234</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15695,7 +15493,7 @@
         <v>6271713.642954234</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15728,7 +15526,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15761,7 +15559,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15794,7 +15592,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15827,7 +15625,7 @@
         <v>6154221.304954235</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15860,7 +15658,7 @@
         <v>6081131.514954234</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15893,7 +15691,7 @@
         <v>6140204.084954235</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15926,7 +15724,7 @@
         <v>6140204.084954235</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15959,7 +15757,7 @@
         <v>6198275.424954235</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15992,7 +15790,7 @@
         <v>6166236.064954234</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16025,7 +15823,7 @@
         <v>6252341.844954235</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16058,7 +15856,7 @@
         <v>6184445.849954234</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16091,7 +15889,7 @@
         <v>6132869.462154235</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16124,7 +15922,7 @@
         <v>6203618.187254235</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16157,7 +15955,7 @@
         <v>6189610.101154235</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16190,7 +15988,7 @@
         <v>6117809.671954235</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16223,7 +16021,7 @@
         <v>6080865.437354235</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16256,7 +16054,7 @@
         <v>6013932.794454235</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16289,7 +16087,7 @@
         <v>6082016.434454234</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16322,7 +16120,7 @@
         <v>6044970.924454235</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16355,7 +16153,7 @@
         <v>6088023.814454234</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16388,7 +16186,7 @@
         <v>6015935.254454235</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16421,7 +16219,7 @@
         <v>6063994.294454235</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16454,7 +16252,7 @@
         <v>6242590.849454234</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16487,7 +16285,7 @@
         <v>6322689.249454235</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16520,7 +16318,7 @@
         <v>6282490.930454235</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16553,7 +16351,7 @@
         <v>6408645.910454235</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16586,7 +16384,7 @@
         <v>6363590.560454235</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16652,7 +16450,7 @@
         <v>6416155.135454236</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16685,7 +16483,7 @@
         <v>6416155.135454236</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16718,7 +16516,7 @@
         <v>6484238.775454235</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18335,7 +18133,7 @@
         <v>6984908.38445424</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18368,7 +18166,7 @@
         <v>7055495.09945424</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18401,7 +18199,7 @@
         <v>7112565.20945424</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18434,7 +18232,7 @@
         <v>7076520.92945424</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18467,7 +18265,7 @@
         <v>7152113.79445424</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18500,7 +18298,7 @@
         <v>7221198.66445424</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18533,7 +18331,7 @@
         <v>7143603.33945424</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18566,7 +18364,7 @@
         <v>7242725.10945424</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18599,7 +18397,7 @@
         <v>7302798.90945424</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18632,7 +18430,7 @@
         <v>7253738.63945424</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18665,7 +18463,7 @@
         <v>7206680.82945424</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18698,7 +18496,7 @@
         <v>7206680.82945424</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18731,7 +18529,7 @@
         <v>7254239.25445424</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18764,7 +18562,7 @@
         <v>7195667.29945424</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18797,7 +18595,7 @@
         <v>7259746.01945424</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18830,7 +18628,7 @@
         <v>7221198.664454239</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18863,7 +18661,7 @@
         <v>7144103.954454239</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18896,7 +18694,7 @@
         <v>7269257.704454239</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18929,7 +18727,7 @@
         <v>7331834.579454239</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18962,7 +18760,7 @@
         <v>7266754.629454239</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18995,7 +18793,7 @@
         <v>7341921.342254239</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19028,7 +18826,7 @@
         <v>7282848.772254239</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19061,7 +18859,7 @@
         <v>7328905.352254239</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19094,7 +18892,7 @@
         <v>7238794.652254239</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19127,7 +18925,7 @@
         <v>7269832.782254239</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19160,7 +18958,7 @@
         <v>7269832.782254239</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19193,7 +18991,7 @@
         <v>7202249.757254238</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19226,7 +19024,7 @@
         <v>7120490.171254238</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19259,7 +19057,7 @@
         <v>7160539.371254238</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19292,7 +19090,7 @@
         <v>7227321.166254238</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19325,7 +19123,7 @@
         <v>7196783.651254239</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19358,7 +19156,7 @@
         <v>7196783.651254239</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19391,7 +19189,7 @@
         <v>7444965.246754238</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19424,7 +19222,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19457,7 +19255,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19490,7 +19288,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19523,7 +19321,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19556,7 +19354,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19589,7 +19387,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19622,7 +19420,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19655,7 +19453,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19688,7 +19486,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19721,7 +19519,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19754,7 +19552,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19787,7 +19585,7 @@
         <v>7470796.980754239</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19820,7 +19618,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19853,7 +19651,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19886,7 +19684,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19919,7 +19717,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19952,7 +19750,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19985,7 +19783,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20018,7 +19816,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20051,7 +19849,7 @@
         <v>7436402.727754239</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20084,7 +19882,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20117,7 +19915,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20150,7 +19948,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20183,7 +19981,7 @@
         <v>7434702.727754239</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20216,7 +20014,7 @@
         <v>7370123.392754239</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20249,7 +20047,7 @@
         <v>7425691.657754239</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20282,7 +20080,7 @@
         <v>7528033.863754239</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20315,7 +20113,7 @@
         <v>7521184.393854239</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20348,7 +20146,7 @@
         <v>7574249.583854239</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20381,7 +20179,7 @@
         <v>7646838.758854239</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20414,7 +20212,7 @@
         <v>7526691.15885424</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20447,7 +20245,7 @@
         <v>7526210.56885424</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20480,7 +20278,7 @@
         <v>7571766.53385424</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20513,7 +20311,7 @@
         <v>7627835.41385424</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20546,7 +20344,7 @@
         <v>7576587.298854239</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20579,7 +20377,7 @@
         <v>7576587.298854239</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20612,7 +20410,7 @@
         <v>7576587.298854239</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20645,7 +20443,7 @@
         <v>7740921.66815424</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20678,7 +20476,7 @@
         <v>7708381.69315424</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20711,7 +20509,7 @@
         <v>7771959.79815424</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20744,7 +20542,7 @@
         <v>7708882.30815424</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20777,7 +20575,7 @@
         <v>7774462.873154241</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20810,7 +20608,7 @@
         <v>7722398.913154241</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20843,7 +20641,7 @@
         <v>7507481.749654241</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20876,7 +20674,7 @@
         <v>7427520.864654241</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20909,7 +20707,7 @@
         <v>7385469.204654241</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20942,7 +20740,7 @@
         <v>7385469.204654241</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20975,7 +20773,7 @@
         <v>7455054.689654241</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21008,7 +20806,7 @@
         <v>7454854.689654241</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21041,7 +20839,7 @@
         <v>7503414.344654242</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21074,7 +20872,7 @@
         <v>7841470.380354241</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21107,7 +20905,7 @@
         <v>7891531.880354241</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21140,7 +20938,7 @@
         <v>7929578.620354242</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21173,7 +20971,7 @@
         <v>7859492.520354242</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21206,7 +21004,7 @@
         <v>7939090.305354242</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21239,7 +21037,7 @@
         <v>7939090.305354242</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21272,7 +21070,7 @@
         <v>8018187.475354242</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21305,7 +21103,7 @@
         <v>8018187.475354242</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21338,7 +21136,7 @@
         <v>7788439.882554242</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21371,7 +21169,7 @@
         <v>7845009.377554242</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21404,7 +21202,7 @@
         <v>7803958.947554243</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21437,7 +21235,7 @@
         <v>7844508.762554243</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21470,7 +21268,7 @@
         <v>7916096.707554244</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21503,7 +21301,7 @@
         <v>7958648.982554244</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21536,7 +21334,7 @@
         <v>7923105.317554244</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21569,7 +21367,7 @@
         <v>7959650.212554243</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21602,7 +21400,7 @@
         <v>8003203.717554243</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21635,7 +21433,7 @@
         <v>7932617.002554243</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21668,7 +21466,7 @@
         <v>7990424.017554243</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21701,7 +21499,7 @@
         <v>7954379.737554243</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21734,7 +21532,7 @@
         <v>7878786.872554243</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21767,7 +21565,7 @@
         <v>8025467.067554243</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21800,7 +21598,7 @@
         <v>8974407.501554243</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21833,7 +21631,7 @@
         <v>8919840.466554243</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21866,7 +21664,7 @@
         <v>9008986.067054244</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21899,7 +21697,7 @@
         <v>8959925.797054244</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21932,7 +21730,7 @@
         <v>9006983.607054245</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21965,7 +21763,7 @@
         <v>9044529.732054245</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21998,7 +21796,7 @@
         <v>8996971.307054244</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22031,7 +21829,7 @@
         <v>9055543.262054244</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22064,7 +21862,7 @@
         <v>8991464.542054243</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22097,7 +21895,7 @@
         <v>9107106.607054243</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22130,7 +21928,7 @@
         <v>9055543.262054242</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22163,7 +21961,7 @@
         <v>8981952.857054243</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22196,7 +21994,7 @@
         <v>9044529.732054243</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22229,7 +22027,7 @@
         <v>9109609.682054242</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22262,7 +22060,7 @@
         <v>9036519.892054243</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22295,7 +22093,7 @@
         <v>9095592.462054243</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22328,7 +22126,7 @@
         <v>9049535.882054243</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22361,7 +22159,7 @@
         <v>8990471.322054243</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22394,7 +22192,7 @@
         <v>9022510.682054242</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22427,7 +22225,7 @@
         <v>8991472.552054241</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22460,7 +22258,7 @@
         <v>9046540.202054242</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22493,7 +22291,7 @@
         <v>8978957.177054241</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22526,7 +22324,7 @@
         <v>9030019.907054242</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22559,7 +22357,7 @@
         <v>8989970.707054242</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22592,7 +22390,7 @@
         <v>8989970.707054242</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22625,7 +22423,7 @@
         <v>8959433.192054242</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22658,7 +22456,7 @@
         <v>8992974.397054242</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22691,7 +22489,7 @@
         <v>8957757.220354242</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22724,7 +22522,7 @@
         <v>8994802.730354242</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22757,7 +22555,7 @@
         <v>9037855.620354243</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22790,7 +22588,7 @@
         <v>9158003.220354242</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22823,7 +22621,7 @@
         <v>9079406.665354243</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22856,7 +22654,7 @@
         <v>9159505.065354243</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22889,7 +22687,7 @@
         <v>9119371.149354244</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22922,7 +22720,7 @@
         <v>9245526.129354244</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23186,7 +22984,7 @@
         <v>9206478.159354245</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23219,7 +23017,7 @@
         <v>9145078.730354246</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23252,7 +23050,7 @@
         <v>9219169.750354245</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23285,7 +23083,7 @@
         <v>9293761.385354245</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23417,7 +23215,7 @@
         <v>9203150.070354246</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23582,7 +23380,7 @@
         <v>9243430.952454245</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23747,7 +23545,7 @@
         <v>9245640.845354244</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23912,7 +23710,7 @@
         <v>9145840.845354244</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23945,7 +23743,7 @@
         <v>9146818.045354243</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23978,7 +23776,7 @@
         <v>9096818.045354243</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24044,7 +23842,7 @@
         <v>8905624.452554243</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24077,7 +23875,7 @@
         <v>8849555.572554242</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24110,7 +23908,7 @@
         <v>8900117.687554242</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24143,7 +23941,7 @@
         <v>8821364.867554242</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24176,7 +23974,7 @@
         <v>8821364.867554242</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24209,7 +24007,7 @@
         <v>8788824.892554242</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24242,7 +24040,7 @@
         <v>8852402.997554243</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24275,7 +24073,7 @@
         <v>8789325.507554242</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24308,7 +24106,7 @@
         <v>8854906.072554242</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24341,7 +24139,7 @@
         <v>8802842.112554241</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24374,7 +24172,7 @@
         <v>8852402.997554241</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24407,7 +24205,7 @@
         <v>8810351.337554241</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24440,7 +24238,7 @@
         <v>8810351.337554241</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24473,7 +24271,7 @@
         <v>8879936.82255424</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24506,7 +24304,7 @@
         <v>8831377.167554241</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24539,7 +24337,7 @@
         <v>8798336.577554241</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24572,7 +24370,7 @@
         <v>8848398.077554241</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24605,7 +24403,7 @@
         <v>8810351.337554241</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24638,7 +24436,7 @@
         <v>8725111.11755424</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24671,7 +24469,7 @@
         <v>8663535.47255424</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24704,7 +24502,7 @@
         <v>8542404.499654241</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24737,7 +24535,7 @@
         <v>8581452.469654242</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24770,7 +24568,7 @@
         <v>8581452.469654242</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24803,7 +24601,7 @@
         <v>8581452.469654242</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24836,7 +24634,7 @@
         <v>8622779.867354242</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24869,7 +24667,7 @@
         <v>8582230.052354243</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24902,7 +24700,7 @@
         <v>8468089.832354242</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24935,7 +24733,7 @@
         <v>8503633.497354241</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24968,7 +24766,7 @@
         <v>8467088.602354242</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25001,7 +24799,7 @@
         <v>8423535.097354241</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25034,7 +24832,7 @@
         <v>8352948.382354241</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25067,7 +24865,7 @@
         <v>8410018.49235424</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25628,7 +25426,7 @@
         <v>8478036.937354239</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25661,7 +25459,7 @@
         <v>8551927.342354238</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25694,7 +25492,7 @@
         <v>8489350.467354238</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25727,7 +25525,7 @@
         <v>8489650.467354238</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25760,7 +25558,7 @@
         <v>8424570.517354239</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25793,7 +25591,7 @@
         <v>8424570.517354239</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25826,7 +25624,7 @@
         <v>8365497.947354238</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25859,7 +25657,7 @@
         <v>8365297.947354238</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25892,7 +25690,7 @@
         <v>8278359.255254239</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25925,7 +25723,7 @@
         <v>8278359.255254239</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25958,7 +25756,7 @@
         <v>8310398.615254239</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25991,7 +25789,7 @@
         <v>8341436.745254239</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26024,7 +25822,7 @@
         <v>8396504.395254239</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26057,7 +25855,7 @@
         <v>8277858.64025424</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26090,7 +25888,7 @@
         <v>8237809.440254239</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26123,7 +25921,7 @@
         <v>8304391.235254239</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26156,7 +25954,7 @@
         <v>8273853.72025424</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26189,7 +25987,7 @@
         <v>8294193.72025424</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26222,7 +26020,7 @@
         <v>8362277.360254239</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26255,7 +26053,7 @@
         <v>8481821.07355424</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26288,7 +26086,7 @@
         <v>7919204.65865424</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26321,7 +26119,7 @@
         <v>7991293.21865424</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26354,7 +26152,7 @@
         <v>8039352.25865424</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26387,7 +26185,7 @@
         <v>7960755.70365424</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26420,7 +26218,7 @@
         <v>8040854.10365424</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26453,7 +26251,7 @@
         <v>8000784.878654241</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26486,7 +26284,7 @@
         <v>8069369.133654241</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26552,7 +26350,7 @@
         <v>8130444.163654241</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26585,7 +26383,7 @@
         <v>8077879.588654241</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26618,7 +26416,7 @@
         <v>8139955.84865424</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26651,7 +26449,7 @@
         <v>8105914.02865424</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26684,7 +26482,7 @@
         <v>8174622.43665424</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26717,7 +26515,7 @@
         <v>8139579.38665424</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26750,7 +26548,7 @@
         <v>8095525.26665424</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26783,7 +26581,7 @@
         <v>8034950.85165424</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26816,7 +26614,7 @@
         <v>7960859.83165424</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26849,7 +26647,7 @@
         <v>8035451.46665424</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26882,7 +26680,7 @@
         <v>8035451.46665424</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26915,7 +26713,7 @@
         <v>7974376.43665424</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26948,7 +26746,7 @@
         <v>7898282.956654239</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26981,7 +26779,7 @@
         <v>7898282.956654239</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27014,7 +26812,7 @@
         <v>7823190.706654239</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27047,7 +26845,7 @@
         <v>7890273.11665424</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27080,7 +26878,7 @@
         <v>7825693.78165424</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27113,7 +26911,7 @@
         <v>7881262.046654239</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27146,7 +26944,7 @@
         <v>7821688.86165424</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27179,7 +26977,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27212,7 +27010,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27245,7 +27043,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27278,7 +27076,7 @@
         <v>7901402.78965424</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27311,7 +27109,7 @@
         <v>7957471.66965424</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27344,7 +27142,7 @@
         <v>8008033.78465424</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27377,7 +27175,7 @@
         <v>7929937.84465424</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27410,7 +27208,7 @@
         <v>7983503.649654239</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27443,7 +27241,7 @@
         <v>8016043.624654239</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27476,7 +27274,7 @@
         <v>7952465.519654239</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27509,7 +27307,7 @@
         <v>8018398.749654239</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27542,7 +27340,7 @@
         <v>7952818.184654239</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27575,7 +27373,7 @@
         <v>7899819.852654238</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27608,7 +27406,7 @@
         <v>7899819.852654238</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27674,7 +27472,7 @@
         <v>7865434.059354238</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27707,7 +27505,7 @@
         <v>7795848.574354238</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27740,7 +27538,7 @@
         <v>7844408.229354238</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27773,7 +27571,7 @@
         <v>7844408.229354238</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27806,7 +27604,7 @@
         <v>7794346.729354238</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27839,7 +27637,7 @@
         <v>7832393.469354238</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27872,7 +27670,7 @@
         <v>7762307.369354239</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27905,7 +27703,7 @@
         <v>7841905.154354239</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27938,7 +27736,7 @@
         <v>7841748.512654239</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27971,7 +27769,7 @@
         <v>7903324.157654239</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28004,7 +27802,7 @@
         <v>7982421.327654239</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28037,7 +27835,7 @@
         <v>7943373.357654239</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28070,7 +27868,7 @@
         <v>7872286.027654239</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28103,7 +27901,7 @@
         <v>7928855.522654239</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28136,7 +27934,7 @@
         <v>7887805.092654239</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28169,7 +27967,7 @@
         <v>7847255.277654239</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28202,7 +28000,7 @@
         <v>7918843.222654239</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28235,7 +28033,7 @@
         <v>7777570.74765424</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28268,7 +28066,7 @@
         <v>7813114.41265424</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28301,7 +28099,7 @@
         <v>7893212.81265424</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28334,7 +28132,7 @@
         <v>7822626.09765424</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28367,7 +28165,7 @@
         <v>7765555.98765424</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28400,7 +28198,7 @@
         <v>7801600.26765424</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28433,7 +28231,7 @@
         <v>7878090.23465424</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28466,7 +28264,7 @@
         <v>7809005.36465424</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28499,7 +28297,7 @@
         <v>7731410.03965424</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28532,7 +28330,7 @@
         <v>7830531.80965424</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28565,7 +28363,7 @@
         <v>7770458.00965424</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28598,7 +28396,7 @@
         <v>7721397.73965424</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28631,7 +28429,7 @@
         <v>7768455.54965424</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28664,7 +28462,7 @@
         <v>7730909.42465424</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28697,7 +28495,7 @@
         <v>7778467.84965424</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28730,7 +28528,7 @@
         <v>7779061.62265424</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28763,7 +28561,7 @@
         <v>7720489.66765424</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28796,7 +28594,7 @@
         <v>7656410.94765424</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28829,7 +28627,7 @@
         <v>7694958.30265424</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28862,7 +28660,7 @@
         <v>7617863.59265424</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28895,7 +28693,7 @@
         <v>7566300.247654241</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28928,7 +28726,7 @@
         <v>7639890.652654241</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28961,7 +28759,7 @@
         <v>7577313.777654241</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28994,7 +28792,7 @@
         <v>7577313.777654241</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29027,7 +28825,7 @@
         <v>7636386.347654241</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29060,7 +28858,7 @@
         <v>7682442.927654241</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29093,7 +28891,7 @@
         <v>7624371.587654241</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29126,7 +28924,7 @@
         <v>7656410.947654242</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29159,7 +28957,7 @@
         <v>7625372.817654242</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29192,7 +28990,7 @@
         <v>7680440.467654242</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29291,7 +29089,7 @@
         <v>7588327.307654242</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29423,7 +29221,7 @@
         <v>7686539.960654241</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29720,7 +29518,7 @@
         <v>7654660.600654241</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -32932,6 +32730,6 @@
       <c r="M948" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest CON.xlsx
+++ b/BackTest/2020-01-19 BackTest CON.xlsx
@@ -451,7 +451,7 @@
         <v>1474.712854228797</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.156</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-68611.38714577121</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.156</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-101651.9771457712</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-189760.2171457712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.157</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-119674.1171457712</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.156</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-260847.5471457712</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.159</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-181750.3771457712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.156</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>-329939.5240457712</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.158</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>370674.9847542288</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.155</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>370674.9847542288</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.17</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +917,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +954,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +991,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1028,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1065,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1102,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1139,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1176,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1213,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1250,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1287,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1324,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1361,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1398,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1435,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1472,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1509,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1546,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1583,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1620,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1657,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1694,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1731,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,15 +1764,15 @@
         <v>609364.1491542287</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1646,12 +1804,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3.161</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1682,17 +1838,13 @@
         <v>631391.2091542288</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1723,15 +1875,15 @@
         <v>568814.3341542288</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1760,17 +1912,13 @@
         <v>706984.0741542288</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1804,12 +1952,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1840,14 +1986,10 @@
         <v>693607.6411542287</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1881,14 +2023,10 @@
         <v>751678.9811542287</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1922,14 +2060,10 @@
         <v>783718.3411542287</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,9 +2100,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,9 +2137,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,9 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,9 +2211,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,9 +2248,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2161,9 +2285,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2197,14 +2319,10 @@
         <v>420764.0596542287</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2238,14 +2356,10 @@
         <v>489240.1816542287</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.153</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2282,9 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2321,9 +2433,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2357,14 +2467,10 @@
         <v>411144.2416542287</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,14 +2504,10 @@
         <v>363085.2016542287</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.153</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2442,9 +2544,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2481,9 +2581,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,9 +2618,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2559,9 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2598,9 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2637,9 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2673,14 +2763,10 @@
         <v>380086.9538542287</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,9 +2803,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2753,14 +2837,10 @@
         <v>389598.6388542287</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.153</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,14 +2874,10 @@
         <v>355556.8188542287</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2835,14 +2911,10 @@
         <v>423640.4588542287</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2876,14 +2948,10 @@
         <v>458683.5088542287</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,9 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2959,9 +3025,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,9 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3037,9 +3099,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3076,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3115,9 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,9 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3193,9 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3232,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3271,9 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,9 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3349,9 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,9 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,9 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3622,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3739,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3817,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3973,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4051,9 +4061,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4090,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4129,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4168,9 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4207,9 +4209,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,9 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4285,9 +4283,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,9 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4363,9 +4357,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4402,9 +4394,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4441,9 +4431,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4519,9 +4505,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4558,9 +4542,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,9 +4579,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4633,14 +4613,10 @@
         <v>1149706.797954229</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4674,14 +4650,10 @@
         <v>1206776.907954229</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4718,9 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4757,9 +4727,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,9 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4835,9 +4801,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4874,9 +4838,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4913,9 +4875,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,14 +4909,10 @@
         <v>1319248.420254229</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.151</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4990,14 +4946,10 @@
         <v>1319248.420254229</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5031,14 +4983,10 @@
         <v>1344632.246954229</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,14 +5020,10 @@
         <v>1297574.436954229</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,14 +5057,10 @@
         <v>1335120.561954229</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.157</v>
-      </c>
-      <c r="J126" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,14 +5094,10 @@
         <v>1287562.136954229</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5195,14 +5131,10 @@
         <v>1346134.091954229</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.151</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5236,14 +5168,10 @@
         <v>1410212.811954229</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3.153</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5277,14 +5205,10 @@
         <v>1371665.456954229</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,14 +5242,10 @@
         <v>1448760.166954229</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5359,14 +5279,10 @@
         <v>1501228.623954229</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,14 +5316,10 @@
         <v>1427638.218954229</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5441,14 +5353,10 @@
         <v>1365061.343954229</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J134" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,14 +5390,10 @@
         <v>1299981.393954229</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5523,14 +5427,10 @@
         <v>1373071.183954229</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.151</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,14 +5464,10 @@
         <v>1313998.613954229</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,14 +5501,10 @@
         <v>1295081.946854229</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,14 +5538,10 @@
         <v>1249025.366854229</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,14 +5575,10 @@
         <v>1456167.568054229</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5728,14 +5612,10 @@
         <v>1488206.928054229</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5769,14 +5649,10 @@
         <v>1488206.928054229</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,9 +5689,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,14 +5723,10 @@
         <v>1538016.265754229</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5893,9 +5763,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,9 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,9 +5837,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6010,9 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,9 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6088,9 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,9 +5985,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,9 +6022,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,9 +6059,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,9 +6096,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6283,9 +6133,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,9 +6170,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,9 +6207,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6400,9 +6244,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,9 +6281,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,9 +6318,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,9 +6355,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6556,9 +6392,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6595,9 +6429,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,9 +6466,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6673,9 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,9 +6540,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,9 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,9 +6614,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6829,9 +6651,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,9 +6688,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6907,9 +6725,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6946,9 +6762,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,9 +6799,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7024,9 +6836,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,9 +6873,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,9 +6910,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,9 +6947,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,9 +6984,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7219,9 +7021,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,9 +7058,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7297,9 +7095,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,9 +7132,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7375,9 +7169,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,9 +7206,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,9 +7243,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,9 +7280,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7531,9 +7317,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7570,9 +7354,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7609,9 +7391,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,9 +7428,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7687,9 +7465,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7726,9 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7765,9 +7539,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,9 +7576,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7843,9 +7613,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7882,9 +7650,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7921,9 +7687,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7960,9 +7724,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.159</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,53 +7758,53 @@
         <v>6116710.61935423</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="F200" t="n">
+        <v>141173.43</v>
+      </c>
+      <c r="G200" t="n">
+        <v>5975537.189354231</v>
+      </c>
+      <c r="H200" t="n">
         <v>2</v>
       </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3.159</v>
-      </c>
-      <c r="K199" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1.02380658436214</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>3.193</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="D200" t="n">
-        <v>3.193</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="F200" t="n">
-        <v>141173.43</v>
-      </c>
-      <c r="G200" t="n">
-        <v>5975537.189354231</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
@@ -8068,7 +7830,7 @@
         <v>6054634.359354231</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -9091,7 +8853,7 @@
         <v>6514318.634354231</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9124,7 +8886,7 @@
         <v>6560375.214354231</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -10444,7 +10206,7 @@
         <v>7240328.321354229</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10642,7 +10404,7 @@
         <v>7203326.86535423</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10972,7 +10734,7 @@
         <v>7421168.221054231</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11005,7 +10767,7 @@
         <v>7371106.721054231</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11038,7 +10800,7 @@
         <v>7431516.395454231</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11071,7 +10833,7 @@
         <v>7361430.295454231</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11104,7 +10866,7 @@
         <v>7384683.642354231</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11137,7 +10899,7 @@
         <v>7305085.857354231</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11170,7 +10932,7 @@
         <v>7164413.042354231</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11203,7 +10965,7 @@
         <v>7203461.012354231</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11335,7 +11097,7 @@
         <v>7148709.751354231</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11368,7 +11130,7 @@
         <v>7189259.566354231</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11500,7 +11262,7 @@
         <v>7159222.666354232</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -13315,7 +13077,7 @@
         <v>6412363.392854232</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13348,7 +13110,7 @@
         <v>6408922.135554233</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13381,7 +13143,7 @@
         <v>6408922.135554233</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13414,7 +13176,7 @@
         <v>6452976.255554233</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13447,7 +13209,7 @@
         <v>6318310.820554233</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13480,7 +13242,7 @@
         <v>6243719.185554233</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13942,7 +13704,7 @@
         <v>6333629.885554233</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14008,7 +13770,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14041,7 +13803,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14074,7 +13836,7 @@
         <v>6392702.455554232</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14107,7 +13869,7 @@
         <v>6350712.526054232</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14140,7 +13902,7 @@
         <v>6318172.551054233</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14173,7 +13935,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14206,7 +13968,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14239,7 +14001,7 @@
         <v>6447531.221054234</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14272,7 +14034,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14305,7 +14067,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14338,7 +14100,7 @@
         <v>6457543.521054233</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14371,7 +14133,7 @@
         <v>6380949.426054234</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14404,7 +14166,7 @@
         <v>6450534.911054234</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14437,7 +14199,7 @@
         <v>6401302.429054234</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14470,7 +14232,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14503,7 +14265,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14536,7 +14298,7 @@
         <v>6364256.919054234</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14569,7 +14331,7 @@
         <v>6284459.134054234</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14602,7 +14364,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14635,7 +14397,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14668,7 +14430,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14701,7 +14463,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14734,7 +14496,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14767,7 +14529,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14800,7 +14562,7 @@
         <v>6255402.878854234</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14833,7 +14595,7 @@
         <v>6326990.823854234</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14866,7 +14628,7 @@
         <v>6284438.548854234</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14899,7 +14661,7 @@
         <v>6319982.213854234</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14932,7 +14694,7 @@
         <v>6282572.255854234</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14965,7 +14727,7 @@
         <v>6326125.760854234</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14998,7 +14760,7 @@
         <v>6396712.475854234</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15031,7 +14793,7 @@
         <v>6339642.365854234</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15064,7 +14826,7 @@
         <v>6375686.645854234</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15097,7 +14859,7 @@
         <v>6300093.780854234</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15130,7 +14892,7 @@
         <v>6231008.910854233</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15163,7 +14925,7 @@
         <v>6308604.235854234</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15196,7 +14958,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15229,7 +14991,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15262,7 +15024,7 @@
         <v>6150064.197954234</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15295,7 +15057,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15328,7 +15090,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15361,7 +15123,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15394,7 +15156,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15427,7 +15189,7 @@
         <v>6220150.297954233</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15460,7 +15222,7 @@
         <v>6156071.577954234</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15493,7 +15255,7 @@
         <v>6271713.642954234</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15526,7 +15288,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15559,7 +15321,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15592,7 +15354,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15625,7 +15387,7 @@
         <v>6154221.304954235</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15658,7 +15420,7 @@
         <v>6081131.514954234</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -26284,7 +26046,7 @@
         <v>8069369.133654241</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27175,7 +26937,7 @@
         <v>7929937.84465424</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27208,7 +26970,7 @@
         <v>7983503.649654239</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27274,7 +27036,7 @@
         <v>7952465.519654239</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27307,7 +27069,7 @@
         <v>8018398.749654239</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27340,7 +27102,7 @@
         <v>7952818.184654239</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27967,7 +27729,7 @@
         <v>7847255.277654239</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
